--- a/patients/PaitientForm.xlsx
+++ b/patients/PaitientForm.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="81" documentId="11_F93145D865A56FAE568463E191F30F76D9790960" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73C294FE-5E6F-4D55-A022-86AF5325BD92}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7825B61-5659-4437-84C9-CC465EFD48D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26895" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>WBC</t>
   </si>
@@ -89,33 +89,6 @@
   </si>
   <si>
     <t>Gender</t>
-  </si>
-  <si>
-    <t>gdg</t>
-  </si>
-  <si>
-    <t>sdgds</t>
-  </si>
-  <si>
-    <t>41124</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>214124</t>
-  </si>
-  <si>
-    <t>21412</t>
-  </si>
-  <si>
-    <t>1242</t>
-  </si>
-  <si>
-    <t>2141</t>
-  </si>
-  <si>
-    <t>124</t>
   </si>
 </sst>
 </file>
@@ -464,37 +437,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" customWidth="1"/>
+    <col min="7" max="7" width="7.59765625" customWidth="1"/>
     <col min="8" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="17.75" customWidth="1"/>
-    <col min="11" max="11" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.875" customWidth="1"/>
-    <col min="14" max="14" width="7.375" customWidth="1"/>
-    <col min="15" max="15" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.375" customWidth="1"/>
+    <col min="10" max="10" width="17.69921875" customWidth="1"/>
+    <col min="11" max="11" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.8984375" customWidth="1"/>
+    <col min="14" max="14" width="7.3984375" customWidth="1"/>
+    <col min="15" max="15" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.3984375" customWidth="1"/>
     <col min="17" max="17" width="15.5" customWidth="1"/>
-    <col min="18" max="18" width="10.75" customWidth="1"/>
-    <col min="19" max="19" width="25.625" customWidth="1"/>
+    <col min="18" max="18" width="10.69921875" customWidth="1"/>
+    <col min="19" max="19" width="25.59765625" customWidth="1"/>
     <col min="20" max="20" width="9" customWidth="1"/>
-    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.75" customWidth="1"/>
-    <col min="23" max="23" width="33.375" customWidth="1"/>
+    <col min="21" max="21" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.69921875" customWidth="1"/>
+    <col min="23" max="23" width="33.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -565,131 +538,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
+    <row r="2" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L2" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M2" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N2" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O2" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P2" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q2" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R2" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S2" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T2" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U2" s="1" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>31</v>
-      </c>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I3" s="2"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L3" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M3" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N3" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O3" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P3" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q3" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R3" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S3" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U3" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/patients/PaitientForm.xlsx
+++ b/patients/PaitientForm.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7825B61-5659-4437-84C9-CC465EFD48D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{E7825B61-5659-4437-84C9-CC465EFD48D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37761A7F-BCBB-42C6-9C64-5B682CCBF4DC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16440" yWindow="137" windowWidth="16423" windowHeight="17606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="71">
   <si>
     <t>WBC</t>
   </si>
@@ -89,6 +89,150 @@
   </si>
   <si>
     <t>Gender</t>
+  </si>
+  <si>
+    <t>esti</t>
+  </si>
+  <si>
+    <t>gabay</t>
+  </si>
+  <si>
+    <t>208383893</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>16000</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Infection</t>
+  </si>
+  <si>
+    <t>Dedicated antibiotics</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>Antarctinib - E</t>
+  </si>
+  <si>
+    <t>israel</t>
+  </si>
+  <si>
+    <t>315616169</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>Thyroid overactivity</t>
+  </si>
+  <si>
+    <t>Propylthiouracil to reduce thyroid activity</t>
+  </si>
+  <si>
+    <t>Use of various medications</t>
+  </si>
+  <si>
+    <t>Referral to a family doctor for a match between medications</t>
+  </si>
+  <si>
+    <t>Blood disease</t>
+  </si>
+  <si>
+    <t>A combination of cyclophosphamide and corticosteroids</t>
+  </si>
+  <si>
+    <t>Pregnant</t>
+  </si>
+  <si>
+    <t>Please consult gynecologist about AP values</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Yam</t>
+  </si>
+  <si>
+    <t>biton</t>
+  </si>
+  <si>
+    <t>315508317</t>
+  </si>
+  <si>
+    <t>1889</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Biton</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>90</t>
   </si>
 </sst>
 </file>
@@ -99,14 +243,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -118,7 +262,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -156,8 +300,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ניטראלי" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -435,39 +579,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.61328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" customWidth="1"/>
-    <col min="7" max="7" width="7.59765625" customWidth="1"/>
+    <col min="5" max="5" width="12.3828125" customWidth="1"/>
+    <col min="6" max="6" width="10.69140625" customWidth="1"/>
+    <col min="7" max="7" width="7.61328125" customWidth="1"/>
     <col min="8" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="17.69921875" customWidth="1"/>
-    <col min="11" max="11" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.8984375" customWidth="1"/>
-    <col min="14" max="14" width="7.3984375" customWidth="1"/>
-    <col min="15" max="15" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.3984375" customWidth="1"/>
-    <col min="17" max="17" width="15.5" customWidth="1"/>
-    <col min="18" max="18" width="10.69921875" customWidth="1"/>
-    <col min="19" max="19" width="25.59765625" customWidth="1"/>
+    <col min="10" max="10" width="17.69140625" customWidth="1"/>
+    <col min="11" max="11" width="6.3828125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.921875" customWidth="1"/>
+    <col min="14" max="14" width="7.3828125" customWidth="1"/>
+    <col min="15" max="15" width="4.61328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.3828125" customWidth="1"/>
+    <col min="17" max="17" width="15.4609375" customWidth="1"/>
+    <col min="18" max="18" width="10.69140625" customWidth="1"/>
+    <col min="19" max="19" width="25.61328125" customWidth="1"/>
     <col min="20" max="20" width="9" customWidth="1"/>
-    <col min="21" max="21" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.69921875" customWidth="1"/>
-    <col min="23" max="23" width="33.3984375" customWidth="1"/>
+    <col min="21" max="21" width="15.3828125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.69140625" customWidth="1"/>
+    <col min="23" max="23" width="33.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -538,33 +682,652 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" t="s">
+        <v>58</v>
+      </c>
+      <c r="W5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U7" t="s">
+        <v>39</v>
+      </c>
+      <c r="V7" t="s">
+        <v>60</v>
+      </c>
+      <c r="W7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" t="s">
+        <v>39</v>
+      </c>
+      <c r="V10" t="s">
+        <v>43</v>
+      </c>
+      <c r="W10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="V11" t="s">
+        <v>56</v>
+      </c>
+      <c r="W11" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
